--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,241 +46,250 @@
     <t>die</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>better</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>protect</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>helping</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -638,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -778,16 +787,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,31 +834,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L5">
+        <v>56</v>
+      </c>
+      <c r="M5">
+        <v>56</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5">
-        <v>0.95</v>
-      </c>
-      <c r="L5">
-        <v>114</v>
-      </c>
-      <c r="M5">
-        <v>114</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -928,16 +937,16 @@
         <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.9268929503916449</v>
+        <v>0.9112271540469974</v>
       </c>
       <c r="L8">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M8">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8260869565217391</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1057,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8076923076923077</v>
+        <v>0.84</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -1075,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.9069767441860465</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,31 +1184,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12">
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="L12">
+        <v>42</v>
+      </c>
+      <c r="M12">
+        <v>42</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12">
-        <v>0.9014084507042254</v>
-      </c>
-      <c r="L12">
-        <v>128</v>
-      </c>
-      <c r="M12">
-        <v>128</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7666666666666667</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7419354838709677</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.8928571428571429</v>
+        <v>0.890625</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7037037037037037</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,16 +1337,16 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>0.890625</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6957364341085271</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C16">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.86875</v>
+        <v>0.8875</v>
       </c>
       <c r="L16">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M16">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6949152542372882</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.8679245283018868</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L17">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6878306878306878</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C18">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K18">
-        <v>0.8620689655172413</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6862745098039216</v>
+        <v>0.7</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K19">
         <v>0.8611111111111112</v>
@@ -1557,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.65625</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>0.8536585365853658</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.65</v>
+        <v>0.6937984496124031</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.8214285714285714</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6410256410256411</v>
+        <v>0.6878306878306878</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0.8095238095238095</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,13 +1716,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6308724832214765</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C23">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K23">
         <v>0.8</v>
@@ -1757,13 +1766,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5833333333333334</v>
+        <v>0.6442953020134228</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1775,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.7948717948717948</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,13 +1816,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5777777777777777</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C25">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1825,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,13 +1866,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5675675675675675</v>
+        <v>0.59375</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1875,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.78</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1899,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1907,13 +1916,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5384615384615384</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1925,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K27">
-        <v>0.7777777777777778</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1949,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1978,16 +1987,16 @@
         <v>27</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>0.7617647058823529</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L28">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1999,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2007,13 +2016,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.48</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2025,19 +2034,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2049,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2057,13 +2066,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4363636363636363</v>
+        <v>0.48</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2075,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.7428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2099,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2107,13 +2116,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4111111111111111</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2125,31 +2134,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31">
+        <v>0.7071129707112971</v>
+      </c>
+      <c r="L31">
+        <v>169</v>
+      </c>
+      <c r="M31">
+        <v>169</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>70</v>
-      </c>
-      <c r="K31">
-        <v>0.7322033898305085</v>
-      </c>
-      <c r="L31">
-        <v>216</v>
-      </c>
-      <c r="M31">
-        <v>216</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2157,13 +2166,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2175,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.7071129707112971</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L32">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2199,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2207,13 +2216,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3116883116883117</v>
+        <v>0.325</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2225,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K33">
         <v>0.7037037037037037</v>
@@ -2257,13 +2266,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2976190476190476</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C34">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D34">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2275,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K34">
-        <v>0.7037037037037037</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2299,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2307,13 +2316,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1662198391420912</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C35">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2325,71 +2334,119 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K35">
-        <v>0.696969696969697</v>
+        <v>0.7</v>
       </c>
       <c r="L35">
+        <v>35</v>
+      </c>
+      <c r="M35">
+        <v>35</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.1823056300268097</v>
+      </c>
+      <c r="C36">
+        <v>68</v>
+      </c>
+      <c r="D36">
+        <v>68</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>305</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L36">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.07666666666666666</v>
+      </c>
+      <c r="C37">
         <v>23</v>
       </c>
-      <c r="M35">
+      <c r="D37">
         <v>23</v>
       </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36">
-        <v>0.6853932584269663</v>
-      </c>
-      <c r="L36">
-        <v>61</v>
-      </c>
-      <c r="M36">
-        <v>61</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>277</v>
+      </c>
       <c r="J37" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K37">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2401,21 +2458,45 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.01009676062263357</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>0.08</v>
+      </c>
+      <c r="F38">
+        <v>0.92</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2353</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K38">
-        <v>0.6702127659574468</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L38">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2427,21 +2508,45 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.00676328502415459</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>0.09</v>
+      </c>
+      <c r="F39">
+        <v>0.91</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>3084</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K39">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2453,21 +2558,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K40">
-        <v>0.6615384615384615</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L40">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M40">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2479,21 +2584,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K41">
-        <v>0.6285714285714286</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L41">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2505,41 +2610,41 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K42">
-        <v>0.6222222222222222</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K43">
-        <v>0.5714285714285714</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L43">
         <v>24</v>
@@ -2557,21 +2662,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K44">
-        <v>0.515625</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2583,21 +2688,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K45">
-        <v>0.5068493150684932</v>
+        <v>0.515625</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2609,21 +2714,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K46">
-        <v>0.4487179487179487</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2635,85 +2740,59 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K47">
-        <v>0.3770491803278688</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K48">
-        <v>0.3684210526315789</v>
+        <v>0.02504173622704508</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K49">
-        <v>0.3559322033898305</v>
-      </c>
-      <c r="L49">
-        <v>21</v>
-      </c>
-      <c r="M49">
-        <v>21</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>38</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
